--- a/99_data-sets-raw/Eurostat/eurostat-total-camping-percentage.xlsx
+++ b/99_data-sets-raw/Eurostat/eurostat-total-camping-percentage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisapramann/R/IDS_Hertie_2021/97_Data_Science_Project/tourism-trends-covid/99_data-sets-raw/Eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09209DBE-2983-3442-AB98-0734986AD9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16E7D33-4F14-3843-88FF-35E8166B2580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{FB329A98-DD2E-8C47-938A-210E7C1970ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
   <si>
     <t>2020-01</t>
   </si>
@@ -634,7 +634,8 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,8 +775,8 @@
       <c r="U2" s="3">
         <v>-44.03</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>14</v>
+      <c r="V2" s="3">
+        <v>20.51</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1250,8 +1251,8 @@
       <c r="U9" s="3">
         <v>15.78</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>14</v>
+      <c r="V9" s="3">
+        <v>46.72</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1318,8 +1319,8 @@
       <c r="U10" s="5">
         <v>-53.73</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>14</v>
+      <c r="V10" s="6">
+        <v>-50</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1454,8 +1455,8 @@
       <c r="U12" s="5">
         <v>-31.9</v>
       </c>
-      <c r="V12" s="6" t="s">
-        <v>14</v>
+      <c r="V12" s="5">
+        <v>-40.409999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1724,10 +1725,10 @@
         <v>-25.95</v>
       </c>
       <c r="U16" s="5">
-        <v>-17.61</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>14</v>
+        <v>-17.38</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -1859,10 +1860,10 @@
       <c r="T18" s="5">
         <v>-20.329999999999998</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>-28.77</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="3">
         <v>-38.409999999999997</v>
       </c>
     </row>
@@ -1927,10 +1928,10 @@
       <c r="T19" s="3">
         <v>38.39</v>
       </c>
-      <c r="U19" s="3">
-        <v>-25.4</v>
-      </c>
-      <c r="V19" s="3">
+      <c r="U19" s="5">
+        <v>-24.73</v>
+      </c>
+      <c r="V19" s="5">
         <v>-14.43</v>
       </c>
     </row>
@@ -1995,10 +1996,10 @@
       <c r="T20" s="5">
         <v>-57.2</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>-33.31</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="3">
         <v>-39.299999999999997</v>
       </c>
     </row>
@@ -2063,10 +2064,10 @@
       <c r="T21" s="3">
         <v>-46.9</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="5">
         <v>-18.21</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="5">
         <v>312.27999999999997</v>
       </c>
     </row>
@@ -2131,10 +2132,10 @@
       <c r="T22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V22" s="6" t="s">
+      <c r="U22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2199,11 +2200,11 @@
       <c r="T23" s="3">
         <v>22.66</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="5">
         <v>22.79</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>14</v>
+      <c r="V23" s="5">
+        <v>34.06</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -2267,10 +2268,10 @@
       <c r="T24" s="5">
         <v>-8.75</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="3">
         <v>8.41</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="3">
         <v>35.54</v>
       </c>
     </row>
@@ -2335,10 +2336,10 @@
       <c r="T25" s="3">
         <v>-8.84</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="5">
         <v>-15.84</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="5">
         <v>-21.53</v>
       </c>
     </row>
@@ -2403,10 +2404,10 @@
       <c r="T26" s="5">
         <v>-32.200000000000003</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="3">
         <v>-29.47</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="3">
         <v>-14.14</v>
       </c>
     </row>
@@ -2471,11 +2472,11 @@
       <c r="T27" s="3">
         <v>-36.22</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="5">
         <v>-27.47</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>14</v>
+      <c r="V27" s="5">
+        <v>-29.28</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2539,11 +2540,11 @@
       <c r="T28" s="5">
         <v>-7.57</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <v>3.03</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>14</v>
+      <c r="V28" s="3">
+        <v>43.93</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -2607,11 +2608,11 @@
       <c r="T29" s="3">
         <v>-14.08</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="5">
         <v>-35.56</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>14</v>
+      <c r="V29" s="5">
+        <v>8.16</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -2675,10 +2676,10 @@
       <c r="T30" s="5">
         <v>10.63</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>3.37</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="3">
         <v>11.11</v>
       </c>
     </row>
@@ -2743,10 +2744,10 @@
       <c r="T31" s="3">
         <v>-20.83</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="5">
         <v>0.2</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="5">
         <v>8.2799999999999994</v>
       </c>
     </row>
@@ -2811,10 +2812,10 @@
       <c r="T32" s="5">
         <v>-25.44</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V32" s="6" t="s">
+      <c r="U32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V32" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2879,11 +2880,11 @@
       <c r="T33" s="3">
         <v>21.99</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="5">
         <v>86.25</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>14</v>
+      <c r="V33" s="5">
+        <v>111.85</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -2947,11 +2948,11 @@
       <c r="T34" s="5">
         <v>11.13</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>8.59</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>14</v>
+      <c r="V34" s="3">
+        <v>24.5</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
